--- a/biology/Botanique/Chamaedorea/Chamaedorea.xlsx
+++ b/biology/Botanique/Chamaedorea/Chamaedorea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Chamaedorée, Chamaedorea, est un genre de la famille des Arecaceae. C'est un genre de palmiers qui comprend un nombre très élevé d'espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stipe. Ce sont des palmiers à stipe unique, ou stolonifères. Ils sont de taille petite à moyenne. Certaines espèces sont grimpantes. Les stipes sont lisses et de couleur verte.
 Les feuilles sont pennées et peu nombreuses. Chez certaines espèces, elles forment une couronne.</t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est natif des forêts des régions tropicales humides de l'Amérique du Sud, du Mexique et de l'Amérique centrale. Il affectionne l'ombre. Il est très largement planté en dehors de son habitat d'origine. Ce genre compte un peu plus d'une centaine d'espèces.
 </t>
@@ -573,7 +589,9 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre sont souvent cultivées pour leur valeur ornementale. Ce sont généralement des espèces résistantes qui supportent des conditions de culture variées. Elles sont souvent utilisées comme plantes d'intérieur.
 Pour l'extérieur des espèces de ce genre sont assez résistantes ; c'est le cas de Chamaedorea microspadix qui peut s'établir et prospérer en zone de rusticité 8b (-9 °C), ainsi que le Chamaedorea radicalis qui résiste quant à lui à -10ºC dans des espaces bien protégés.
@@ -607,10 +625,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
-Tribu des Chamaedoreeae[1]
+Tribu des Chamaedoreeae
 Le genre partage sa tribu avec 4 autres genres : Hyophorbe, Gaussia, Synechanthus et Wendlandiella.
 </t>
         </is>
@@ -640,7 +660,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chamaedorea adscendens (Dammer) Burret
